--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3397.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3397.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.96491481911575</v>
+        <v>1.172505855560303</v>
       </c>
       <c r="B1">
-        <v>2.232023434755142</v>
+        <v>5.942238807678223</v>
       </c>
       <c r="C1">
-        <v>2.394062766006306</v>
+        <v>3.991207838058472</v>
       </c>
       <c r="D1">
-        <v>3.222721626111233</v>
+        <v>1.761365413665771</v>
       </c>
       <c r="E1">
-        <v>3.14871582550776</v>
+        <v>1.212256073951721</v>
       </c>
     </row>
   </sheetData>
